--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/15/seed1/result_data_KNN.xlsx
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.475999999999999</v>
+        <v>-7.676</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.065999999999999</v>
+        <v>-8.169</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.552000000000001</v>
+        <v>-7.842000000000001</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.657999999999999</v>
+        <v>-8.529</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.308000000000002</v>
+        <v>-7.672999999999999</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.274000000000001</v>
+        <v>-8.262</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.498</v>
+        <v>-7.292</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.994</v>
+        <v>-7.98</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.81</v>
+        <v>-7.883999999999999</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.43</v>
+        <v>-8.202000000000002</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.474</v>
+        <v>-8.457000000000001</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.944</v>
+        <v>-8.115</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.895999999999999</v>
+        <v>-8.06</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1440,7 +1440,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.016</v>
+        <v>-8.123999999999999</v>
       </c>
       <c r="E59" t="n">
         <v>16.47</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-7.842000000000001</v>
+        <v>-7.946000000000001</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1559,7 +1559,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.609999999999999</v>
+        <v>-7.436</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.581999999999999</v>
+        <v>-7.789</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1695,7 +1695,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.156000000000001</v>
+        <v>-7.904999999999999</v>
       </c>
       <c r="E74" t="n">
         <v>16.1</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.673999999999999</v>
+        <v>-6.536999999999999</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.065999999999999</v>
+        <v>-8.295</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
